--- a/state_results/Rivers/OrouaatAlmadaleSlackline_4c8ea80f1e.xlsx
+++ b/state_results/Rivers/OrouaatAlmadaleSlackline_4c8ea80f1e.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U275"/>
+  <dimension ref="A1:U296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,7 +570,7 @@
         <v>0.0135</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0210420315730897</v>
+        <v>0.0210433876719174</v>
       </c>
       <c r="H2" t="n">
         <v>0.144</v>
@@ -651,7 +651,7 @@
         <v>0.0135</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0210420315730897</v>
+        <v>0.0210433876719174</v>
       </c>
       <c r="H3" t="n">
         <v>0.144</v>
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.00037</v>
+        <v>0.00041</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0063092086272524</v>
+        <v>0.0063331680091082</v>
       </c>
       <c r="H4" t="n">
         <v>0.07027406886851439</v>
@@ -743,7 +743,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>0.00034</v>
+        <v>0.00037</v>
       </c>
       <c r="M4" t="n">
         <v>0.01296</v>
@@ -810,10 +810,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.00037</v>
+        <v>0.00041</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0063092086272524</v>
+        <v>0.0063331680091082</v>
       </c>
       <c r="H5" t="n">
         <v>0.07027406886851439</v>
@@ -824,7 +824,7 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>0.00034</v>
+        <v>0.00037</v>
       </c>
       <c r="M5" t="n">
         <v>0.01296</v>
@@ -890,7 +890,7 @@
         <v>0.108</v>
       </c>
       <c r="G6" t="n">
-        <v>0.159563814643768</v>
+        <v>0.159700423870508</v>
       </c>
       <c r="H6" t="n">
         <v>0.64</v>
@@ -901,7 +901,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>0.02293</v>
+        <v>0.02324</v>
       </c>
       <c r="M6" t="n">
         <v>0.32278</v>
@@ -967,7 +967,7 @@
         <v>0.108</v>
       </c>
       <c r="G7" t="n">
-        <v>0.159563814643768</v>
+        <v>0.159700423870508</v>
       </c>
       <c r="H7" t="n">
         <v>0.64</v>
@@ -978,7 +978,7 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>0.02293</v>
+        <v>0.02324</v>
       </c>
       <c r="M7" t="n">
         <v>0.32278</v>
@@ -1048,7 +1048,7 @@
         <v>0.01125</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0182644955523135</v>
+        <v>0.0182663281136539</v>
       </c>
       <c r="H8" t="n">
         <v>0.144</v>
@@ -1129,7 +1129,7 @@
         <v>0.01125</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0182644955523135</v>
+        <v>0.0182663281136539</v>
       </c>
       <c r="H9" t="n">
         <v>0.144</v>
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.0005</v>
+        <v>0.00055</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0051816147165432</v>
+        <v>0.0052030729309534</v>
       </c>
       <c r="H10" t="n">
         <v>0.07027406886851439</v>
@@ -1221,7 +1221,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>0.00041</v>
+        <v>0.00044</v>
       </c>
       <c r="M10" t="n">
         <v>0.00729</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.0005</v>
+        <v>0.00055</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0051816147165432</v>
+        <v>0.0052030729309534</v>
       </c>
       <c r="H11" t="n">
         <v>0.07027406886851439</v>
@@ -1302,7 +1302,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>0.00041</v>
+        <v>0.00044</v>
       </c>
       <c r="M11" t="n">
         <v>0.00729</v>
@@ -1368,7 +1368,7 @@
         <v>0.1135</v>
       </c>
       <c r="G12" t="n">
-        <v>0.170841865195468</v>
+        <v>0.170941217360369</v>
       </c>
       <c r="H12" t="n">
         <v>0.64</v>
@@ -1379,7 +1379,7 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>0.02293</v>
+        <v>0.02324</v>
       </c>
       <c r="M12" t="n">
         <v>0.3359</v>
@@ -1445,7 +1445,7 @@
         <v>0.1135</v>
       </c>
       <c r="G13" t="n">
-        <v>0.170841865195468</v>
+        <v>0.170941217360369</v>
       </c>
       <c r="H13" t="n">
         <v>0.64</v>
@@ -1456,7 +1456,7 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>0.02293</v>
+        <v>0.02324</v>
       </c>
       <c r="M13" t="n">
         <v>0.3359</v>
@@ -1522,7 +1522,7 @@
         <v>0.25</v>
       </c>
       <c r="G14" t="n">
-        <v>0.284401911232775</v>
+        <v>0.284428629088423</v>
       </c>
       <c r="H14" t="n">
         <v>0.67</v>
@@ -1599,7 +1599,7 @@
         <v>0.25</v>
       </c>
       <c r="G15" t="n">
-        <v>0.284401911232775</v>
+        <v>0.284428629088423</v>
       </c>
       <c r="H15" t="n">
         <v>0.67</v>
@@ -1680,10 +1680,10 @@
         <v>1.1</v>
       </c>
       <c r="G16" t="n">
-        <v>2.0759345782543</v>
+        <v>2.00402363786458</v>
       </c>
       <c r="H16" t="n">
-        <v>12.8288397422045</v>
+        <v>10.3784766094931</v>
       </c>
       <c r="I16" t="n">
         <v>5</v>
@@ -1761,7 +1761,7 @@
         <v>0.011</v>
       </c>
       <c r="G17" t="n">
-        <v>0.016793414623669</v>
+        <v>0.0167948806727413</v>
       </c>
       <c r="H17" t="n">
         <v>0.144</v>
@@ -1842,7 +1842,7 @@
         <v>0.011</v>
       </c>
       <c r="G18" t="n">
-        <v>0.016793414623669</v>
+        <v>0.0167948806727413</v>
       </c>
       <c r="H18" t="n">
         <v>0.144</v>
@@ -2337,10 +2337,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.00103</v>
+        <v>0.00106</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0046457803062398</v>
+        <v>0.0046681297706865</v>
       </c>
       <c r="H24" t="n">
         <v>0.07027406886851439</v>
@@ -2351,7 +2351,7 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
-        <v>0.00081</v>
+        <v>0.00083</v>
       </c>
       <c r="M24" t="n">
         <v>0.00664</v>
@@ -2418,10 +2418,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.00103</v>
+        <v>0.00106</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0046457803062398</v>
+        <v>0.0046681297706865</v>
       </c>
       <c r="H25" t="n">
         <v>0.07027406886851439</v>
@@ -2432,7 +2432,7 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
-        <v>0.00081</v>
+        <v>0.00083</v>
       </c>
       <c r="M25" t="n">
         <v>0.00664</v>
@@ -2502,7 +2502,7 @@
         <v>0.135</v>
       </c>
       <c r="G26" t="n">
-        <v>0.162386311550472</v>
+        <v>0.162621818663657</v>
       </c>
       <c r="H26" t="n">
         <v>0.62</v>
@@ -2583,7 +2583,7 @@
         <v>0.135</v>
       </c>
       <c r="G27" t="n">
-        <v>0.162386311550472</v>
+        <v>0.162621818663657</v>
       </c>
       <c r="H27" t="n">
         <v>0.62</v>
@@ -2660,7 +2660,7 @@
         <v>0.122</v>
       </c>
       <c r="G28" t="n">
-        <v>0.165491673974556</v>
+        <v>0.165571155706477</v>
       </c>
       <c r="H28" t="n">
         <v>0.64</v>
@@ -2671,7 +2671,7 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
-        <v>0.02293</v>
+        <v>0.02324</v>
       </c>
       <c r="M28" t="n">
         <v>0.3203</v>
@@ -2737,7 +2737,7 @@
         <v>0.122</v>
       </c>
       <c r="G29" t="n">
-        <v>0.165491673974556</v>
+        <v>0.165571155706477</v>
       </c>
       <c r="H29" t="n">
         <v>0.64</v>
@@ -2748,7 +2748,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>0.02293</v>
+        <v>0.02324</v>
       </c>
       <c r="M29" t="n">
         <v>0.3203</v>
@@ -2814,7 +2814,7 @@
         <v>0.27</v>
       </c>
       <c r="G30" t="n">
-        <v>0.308063166050636</v>
+        <v>0.308083630791133</v>
       </c>
       <c r="H30" t="n">
         <v>1.554</v>
@@ -2891,7 +2891,7 @@
         <v>0.27</v>
       </c>
       <c r="G31" t="n">
-        <v>0.308063166050636</v>
+        <v>0.308083630791133</v>
       </c>
       <c r="H31" t="n">
         <v>1.554</v>
@@ -2972,13 +2972,13 @@
         <v>1.7</v>
       </c>
       <c r="G32" t="n">
-        <v>2.37830967189476</v>
+        <v>2.30107498490141</v>
       </c>
       <c r="H32" t="n">
-        <v>12.8288397422045</v>
+        <v>11.2858485911156</v>
       </c>
       <c r="I32" t="n">
-        <v>7.06663</v>
+        <v>7.92808</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -2986,10 +2986,10 @@
         <v>3.775</v>
       </c>
       <c r="M32" t="n">
-        <v>4.29854</v>
+        <v>4.19659</v>
       </c>
       <c r="N32" t="n">
-        <v>5.28959</v>
+        <v>5.025</v>
       </c>
       <c r="O32" t="n">
         <v>1826486</v>
@@ -3053,7 +3053,7 @@
         <v>0.01</v>
       </c>
       <c r="G33" t="n">
-        <v>0.010733052194943</v>
+        <v>0.0107349519078442</v>
       </c>
       <c r="H33" t="n">
         <v>0.021</v>
@@ -3134,7 +3134,7 @@
         <v>0.01</v>
       </c>
       <c r="G34" t="n">
-        <v>0.010733052194943</v>
+        <v>0.0107349519078442</v>
       </c>
       <c r="H34" t="n">
         <v>0.021</v>
@@ -3629,10 +3629,10 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.00119</v>
+        <v>0.00122</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0043791737447529</v>
+        <v>0.0044000608623684</v>
       </c>
       <c r="H40" t="n">
         <v>0.0242811260429469</v>
@@ -3710,10 +3710,10 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.00119</v>
+        <v>0.00122</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0043791737447529</v>
+        <v>0.0044000608623684</v>
       </c>
       <c r="H41" t="n">
         <v>0.0242811260429469</v>
@@ -3794,7 +3794,7 @@
         <v>0.142</v>
       </c>
       <c r="G42" t="n">
-        <v>0.183171189675556</v>
+        <v>0.183344069273694</v>
       </c>
       <c r="H42" t="n">
         <v>0.8179999999999999</v>
@@ -3805,7 +3805,7 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
-        <v>0.01129</v>
+        <v>0.01165</v>
       </c>
       <c r="M42" t="n">
         <v>0.3253</v>
@@ -3875,7 +3875,7 @@
         <v>0.142</v>
       </c>
       <c r="G43" t="n">
-        <v>0.183171189675556</v>
+        <v>0.183344069273694</v>
       </c>
       <c r="H43" t="n">
         <v>0.8179999999999999</v>
@@ -3886,7 +3886,7 @@
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
-        <v>0.01129</v>
+        <v>0.01165</v>
       </c>
       <c r="M43" t="n">
         <v>0.3253</v>
@@ -3952,7 +3952,7 @@
         <v>0.141</v>
       </c>
       <c r="G44" t="n">
-        <v>0.179983184428642</v>
+        <v>0.18004316957588</v>
       </c>
       <c r="H44" t="n">
         <v>0.834</v>
@@ -3963,7 +3963,7 @@
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
-        <v>0.01954</v>
+        <v>0.01992</v>
       </c>
       <c r="M44" t="n">
         <v>0.32811</v>
@@ -4029,7 +4029,7 @@
         <v>0.141</v>
       </c>
       <c r="G45" t="n">
-        <v>0.179983184428642</v>
+        <v>0.18004316957588</v>
       </c>
       <c r="H45" t="n">
         <v>0.834</v>
@@ -4040,7 +4040,7 @@
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
-        <v>0.01954</v>
+        <v>0.01992</v>
       </c>
       <c r="M45" t="n">
         <v>0.32811</v>
@@ -4106,7 +4106,7 @@
         <v>0.25</v>
       </c>
       <c r="G46" t="n">
-        <v>0.320660488209829</v>
+        <v>0.320676790630224</v>
       </c>
       <c r="H46" t="n">
         <v>1.554</v>
@@ -4183,7 +4183,7 @@
         <v>0.25</v>
       </c>
       <c r="G47" t="n">
-        <v>0.320660488209829</v>
+        <v>0.320676790630224</v>
       </c>
       <c r="H47" t="n">
         <v>1.554</v>
@@ -4260,7 +4260,7 @@
         <v>0.021</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0570575591873841</v>
+        <v>0.0570586202079838</v>
       </c>
       <c r="H48" t="n">
         <v>0.6245000000000001</v>
@@ -4337,7 +4337,7 @@
         <v>0.021</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0570575591873841</v>
+        <v>0.0570586202079838</v>
       </c>
       <c r="H49" t="n">
         <v>0.6245000000000001</v>
@@ -4418,13 +4418,13 @@
         <v>2.25</v>
       </c>
       <c r="G50" t="n">
-        <v>2.5910248449279</v>
+        <v>2.51092961397183</v>
       </c>
       <c r="H50" t="n">
-        <v>12.8288397422045</v>
+        <v>11.2858485911156</v>
       </c>
       <c r="I50" t="n">
-        <v>7.24799</v>
+        <v>8.16783</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -4432,10 +4432,10 @@
         <v>3.95</v>
       </c>
       <c r="M50" t="n">
-        <v>4.20862</v>
+        <v>4.00944</v>
       </c>
       <c r="N50" t="n">
-        <v>5.37246</v>
+        <v>5.22496</v>
       </c>
       <c r="O50" t="n">
         <v>1826486</v>
@@ -4499,7 +4499,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G51" t="n">
-        <v>0.009366485277814401</v>
+        <v>0.009368823983003999</v>
       </c>
       <c r="H51" t="n">
         <v>0.021</v>
@@ -4580,7 +4580,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G52" t="n">
-        <v>0.009366485277814401</v>
+        <v>0.009368823983003999</v>
       </c>
       <c r="H52" t="n">
         <v>0.021</v>
@@ -5075,10 +5075,10 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0.00366</v>
+        <v>0.00365</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0063103370307942</v>
+        <v>0.0063288068225117</v>
       </c>
       <c r="H58" t="n">
         <v>0.0396857217343754</v>
@@ -5156,10 +5156,10 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0.00366</v>
+        <v>0.00365</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0063103370307942</v>
+        <v>0.0063288068225117</v>
       </c>
       <c r="H59" t="n">
         <v>0.0396857217343754</v>
@@ -5240,7 +5240,7 @@
         <v>0.115</v>
       </c>
       <c r="G60" t="n">
-        <v>0.165399748901285</v>
+        <v>0.165501222709458</v>
       </c>
       <c r="H60" t="n">
         <v>0.8179999999999999</v>
@@ -5251,7 +5251,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
-        <v>0.01129</v>
+        <v>0.01165</v>
       </c>
       <c r="M60" t="n">
         <v>0.31118</v>
@@ -5321,7 +5321,7 @@
         <v>0.115</v>
       </c>
       <c r="G61" t="n">
-        <v>0.165399748901285</v>
+        <v>0.165501222709458</v>
       </c>
       <c r="H61" t="n">
         <v>0.8179999999999999</v>
@@ -5332,7 +5332,7 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
-        <v>0.01129</v>
+        <v>0.01165</v>
       </c>
       <c r="M61" t="n">
         <v>0.31118</v>
@@ -5398,7 +5398,7 @@
         <v>0.122</v>
       </c>
       <c r="G62" t="n">
-        <v>0.170594587632993</v>
+        <v>0.170607573108311</v>
       </c>
       <c r="H62" t="n">
         <v>0.834</v>
@@ -5409,7 +5409,7 @@
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
-        <v>0.01954</v>
+        <v>0.01992</v>
       </c>
       <c r="M62" t="n">
         <v>0.32329</v>
@@ -5475,7 +5475,7 @@
         <v>0.122</v>
       </c>
       <c r="G63" t="n">
-        <v>0.170594587632993</v>
+        <v>0.170607573108311</v>
       </c>
       <c r="H63" t="n">
         <v>0.834</v>
@@ -5486,7 +5486,7 @@
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
-        <v>0.01954</v>
+        <v>0.01992</v>
       </c>
       <c r="M63" t="n">
         <v>0.32329</v>
@@ -5552,7 +5552,7 @@
         <v>0.2</v>
       </c>
       <c r="G64" t="n">
-        <v>0.370355403464066</v>
+        <v>0.370371705884462</v>
       </c>
       <c r="H64" t="n">
         <v>3.9</v>
@@ -5629,7 +5629,7 @@
         <v>0.2</v>
       </c>
       <c r="G65" t="n">
-        <v>0.370355403464066</v>
+        <v>0.370371705884462</v>
       </c>
       <c r="H65" t="n">
         <v>3.9</v>
@@ -5706,7 +5706,7 @@
         <v>0.02</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0844184903350798</v>
+        <v>0.0844202955434746</v>
       </c>
       <c r="H66" t="n">
         <v>1.814</v>
@@ -5783,7 +5783,7 @@
         <v>0.02</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0844184903350798</v>
+        <v>0.0844202955434746</v>
       </c>
       <c r="H67" t="n">
         <v>1.814</v>
@@ -5945,24 +5945,24 @@
         <v>2.3</v>
       </c>
       <c r="G69" t="n">
-        <v>2.5127927588635</v>
+        <v>2.50327678421586</v>
       </c>
       <c r="H69" t="n">
-        <v>11.1051353759276</v>
+        <v>11.2858485911156</v>
       </c>
       <c r="I69" t="n">
-        <v>5.69357</v>
+        <v>5.8</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
-        <v>4.05</v>
+        <v>4.01475</v>
       </c>
       <c r="M69" t="n">
-        <v>4.20862</v>
+        <v>4.2</v>
       </c>
       <c r="N69" t="n">
-        <v>5.11205</v>
+        <v>4.672</v>
       </c>
       <c r="O69" t="n">
         <v>1826486</v>
@@ -6026,7 +6026,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0094708071364776</v>
+        <v>0.009472410330438601</v>
       </c>
       <c r="H70" t="n">
         <v>0.021</v>
@@ -6107,7 +6107,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0094708071364776</v>
+        <v>0.009472410330438601</v>
       </c>
       <c r="H71" t="n">
         <v>0.021</v>
@@ -6602,10 +6602,10 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.00361</v>
+        <v>0.0036</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0060764037772485</v>
+        <v>0.0060911765325874</v>
       </c>
       <c r="H77" t="n">
         <v>0.0396857217343754</v>
@@ -6616,7 +6616,7 @@
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
-        <v>0.00406</v>
+        <v>0.00402</v>
       </c>
       <c r="M77" t="n">
         <v>0.01107</v>
@@ -6683,10 +6683,10 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0.00361</v>
+        <v>0.0036</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0060764037772485</v>
+        <v>0.0060911765325874</v>
       </c>
       <c r="H78" t="n">
         <v>0.0396857217343754</v>
@@ -6697,7 +6697,7 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
-        <v>0.00406</v>
+        <v>0.00402</v>
       </c>
       <c r="M78" t="n">
         <v>0.01107</v>
@@ -6767,7 +6767,7 @@
         <v>0.0895</v>
       </c>
       <c r="G79" t="n">
-        <v>0.136253794099054</v>
+        <v>0.136337002621756</v>
       </c>
       <c r="H79" t="n">
         <v>0.8179999999999999</v>
@@ -6848,7 +6848,7 @@
         <v>0.0895</v>
       </c>
       <c r="G80" t="n">
-        <v>0.136253794099054</v>
+        <v>0.136337002621756</v>
       </c>
       <c r="H80" t="n">
         <v>0.8179999999999999</v>
@@ -7079,7 +7079,7 @@
         <v>0.19</v>
       </c>
       <c r="G83" t="n">
-        <v>0.355033369565761</v>
+        <v>0.355049671986157</v>
       </c>
       <c r="H83" t="n">
         <v>3.9</v>
@@ -7156,7 +7156,7 @@
         <v>0.19</v>
       </c>
       <c r="G84" t="n">
-        <v>0.355033369565761</v>
+        <v>0.355049671986157</v>
       </c>
       <c r="H84" t="n">
         <v>3.9</v>
@@ -7233,7 +7233,7 @@
         <v>0.0185</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0779947615215205</v>
+        <v>0.0779965667299152</v>
       </c>
       <c r="H85" t="n">
         <v>1.814</v>
@@ -7310,7 +7310,7 @@
         <v>0.0185</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0779947615215205</v>
+        <v>0.0779965667299152</v>
       </c>
       <c r="H86" t="n">
         <v>1.814</v>
@@ -7546,27 +7546,27 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>3</v>
+        <v>2.56208</v>
       </c>
       <c r="G89" t="n">
-        <v>2.83169068220092</v>
+        <v>2.8215449010036</v>
       </c>
       <c r="H89" t="n">
-        <v>11.1051353759276</v>
+        <v>11.2858485911156</v>
       </c>
       <c r="I89" t="n">
-        <v>5.98986</v>
+        <v>6</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
+        <v>4.32258</v>
+      </c>
+      <c r="M89" t="n">
         <v>4.6</v>
       </c>
-      <c r="M89" t="n">
-        <v>4.683</v>
-      </c>
       <c r="N89" t="n">
-        <v>5.62481</v>
+        <v>5.71</v>
       </c>
       <c r="O89" t="n">
         <v>1826486</v>
@@ -7630,7 +7630,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G90" t="n">
-        <v>0.009296353001512801</v>
+        <v>0.0092973250507875</v>
       </c>
       <c r="H90" t="n">
         <v>0.018</v>
@@ -7711,7 +7711,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G91" t="n">
-        <v>0.009296353001512801</v>
+        <v>0.0092973250507875</v>
       </c>
       <c r="H91" t="n">
         <v>0.018</v>
@@ -8206,10 +8206,10 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0.00351</v>
+        <v>0.0035</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0073510723386525</v>
+        <v>0.0073629538734014</v>
       </c>
       <c r="H97" t="n">
         <v>0.0508190211955267</v>
@@ -8220,7 +8220,7 @@
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
-        <v>0.00204</v>
+        <v>0.00202</v>
       </c>
       <c r="M97" t="n">
         <v>0.01124</v>
@@ -8287,10 +8287,10 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0.00351</v>
+        <v>0.0035</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0073510723386525</v>
+        <v>0.0073629538734014</v>
       </c>
       <c r="H98" t="n">
         <v>0.0508190211955267</v>
@@ -8301,7 +8301,7 @@
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
-        <v>0.00204</v>
+        <v>0.00202</v>
       </c>
       <c r="M98" t="n">
         <v>0.01124</v>
@@ -8371,7 +8371,7 @@
         <v>0.0798</v>
       </c>
       <c r="G99" t="n">
-        <v>0.137059701602594</v>
+        <v>0.137116662815827</v>
       </c>
       <c r="H99" t="n">
         <v>0.8179999999999999</v>
@@ -8382,7 +8382,7 @@
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
-        <v>0.00644</v>
+        <v>0.00676</v>
       </c>
       <c r="M99" t="n">
         <v>0.31082</v>
@@ -8452,7 +8452,7 @@
         <v>0.0798</v>
       </c>
       <c r="G100" t="n">
-        <v>0.137059701602594</v>
+        <v>0.137116662815827</v>
       </c>
       <c r="H100" t="n">
         <v>0.8179999999999999</v>
@@ -8463,7 +8463,7 @@
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
-        <v>0.00644</v>
+        <v>0.00676</v>
       </c>
       <c r="M100" t="n">
         <v>0.31082</v>
@@ -8914,7 +8914,7 @@
         <v>0.0185</v>
       </c>
       <c r="G106" t="n">
-        <v>0.115181202199487</v>
+        <v>0.115183007407881</v>
       </c>
       <c r="H106" t="n">
         <v>1.814</v>
@@ -8991,7 +8991,7 @@
         <v>0.0185</v>
       </c>
       <c r="G107" t="n">
-        <v>0.115181202199487</v>
+        <v>0.115183007407881</v>
       </c>
       <c r="H107" t="n">
         <v>1.814</v>
@@ -9230,24 +9230,24 @@
         <v>3.9</v>
       </c>
       <c r="G110" t="n">
-        <v>3.25227891749504</v>
+        <v>3.24213313629772</v>
       </c>
       <c r="H110" t="n">
-        <v>11.1051353759276</v>
+        <v>11.2858485911156</v>
       </c>
       <c r="I110" t="n">
-        <v>6.475</v>
+        <v>7.165</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
-        <v>4.65</v>
+        <v>4.52258</v>
       </c>
       <c r="M110" t="n">
-        <v>5.46247</v>
+        <v>5.415</v>
       </c>
       <c r="N110" t="n">
-        <v>6</v>
+        <v>6.21</v>
       </c>
       <c r="O110" t="n">
         <v>1826486</v>
@@ -9311,7 +9311,7 @@
         <v>0.008500000000000001</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0093430435841586</v>
+        <v>0.0093443411109376</v>
       </c>
       <c r="H111" t="n">
         <v>0.022</v>
@@ -9392,7 +9392,7 @@
         <v>0.008500000000000001</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0093430435841586</v>
+        <v>0.0093443411109376</v>
       </c>
       <c r="H112" t="n">
         <v>0.022</v>
@@ -9890,7 +9890,7 @@
         <v>0.00235</v>
       </c>
       <c r="G118" t="n">
-        <v>0.0088006715933115</v>
+        <v>0.0088145490134913</v>
       </c>
       <c r="H118" t="n">
         <v>0.110695986329004</v>
@@ -9901,7 +9901,7 @@
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
-        <v>0.00101</v>
+        <v>0.00105</v>
       </c>
       <c r="M118" t="n">
         <v>0.0117</v>
@@ -9971,7 +9971,7 @@
         <v>0.00235</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0088006715933115</v>
+        <v>0.0088145490134913</v>
       </c>
       <c r="H119" t="n">
         <v>0.110695986329004</v>
@@ -9982,7 +9982,7 @@
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
-        <v>0.00101</v>
+        <v>0.00105</v>
       </c>
       <c r="M119" t="n">
         <v>0.0117</v>
@@ -10052,7 +10052,7 @@
         <v>0.07770000000000001</v>
       </c>
       <c r="G120" t="n">
-        <v>0.138439289051222</v>
+        <v>0.138462154703552</v>
       </c>
       <c r="H120" t="n">
         <v>0.8179999999999999</v>
@@ -10063,7 +10063,7 @@
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
-        <v>0.002</v>
+        <v>0.00217</v>
       </c>
       <c r="M120" t="n">
         <v>0.31076</v>
@@ -10133,7 +10133,7 @@
         <v>0.07770000000000001</v>
       </c>
       <c r="G121" t="n">
-        <v>0.138439289051222</v>
+        <v>0.138462154703552</v>
       </c>
       <c r="H121" t="n">
         <v>0.8179999999999999</v>
@@ -10144,7 +10144,7 @@
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
-        <v>0.002</v>
+        <v>0.00217</v>
       </c>
       <c r="M121" t="n">
         <v>0.31076</v>
@@ -10287,7 +10287,7 @@
         <v>0.095</v>
       </c>
       <c r="G123" t="n">
-        <v>0.156132136569902</v>
+        <v>0.156142872250863</v>
       </c>
       <c r="H123" t="n">
         <v>0.834</v>
@@ -10364,7 +10364,7 @@
         <v>0.095</v>
       </c>
       <c r="G124" t="n">
-        <v>0.156132136569902</v>
+        <v>0.156142872250863</v>
       </c>
       <c r="H124" t="n">
         <v>0.834</v>
@@ -10441,7 +10441,7 @@
         <v>0.173</v>
       </c>
       <c r="G125" t="n">
-        <v>0.408847255927081</v>
+        <v>0.408865091172437</v>
       </c>
       <c r="H125" t="n">
         <v>3.9</v>
@@ -10518,7 +10518,7 @@
         <v>0.173</v>
       </c>
       <c r="G126" t="n">
-        <v>0.408847255927081</v>
+        <v>0.408865091172437</v>
       </c>
       <c r="H126" t="n">
         <v>3.9</v>
@@ -10595,7 +10595,7 @@
         <v>0.018</v>
       </c>
       <c r="G127" t="n">
-        <v>0.117799240038753</v>
+        <v>0.117800312246144</v>
       </c>
       <c r="H127" t="n">
         <v>1.814</v>
@@ -10672,7 +10672,7 @@
         <v>0.018</v>
       </c>
       <c r="G128" t="n">
-        <v>0.117799240038753</v>
+        <v>0.117800312246144</v>
       </c>
       <c r="H128" t="n">
         <v>1.814</v>
@@ -10911,7 +10911,7 @@
         <v>3.925</v>
       </c>
       <c r="G131" t="n">
-        <v>3.15568107333881</v>
+        <v>3.15561237699091</v>
       </c>
       <c r="H131" t="n">
         <v>7.2</v>
@@ -10992,7 +10992,7 @@
         <v>0.008</v>
       </c>
       <c r="G132" t="n">
-        <v>0.009521165400720901</v>
+        <v>0.0095221920108451</v>
       </c>
       <c r="H132" t="n">
         <v>0.022</v>
@@ -11073,7 +11073,7 @@
         <v>0.008</v>
       </c>
       <c r="G133" t="n">
-        <v>0.009521165400720901</v>
+        <v>0.0095221920108451</v>
       </c>
       <c r="H133" t="n">
         <v>0.022</v>
@@ -11568,10 +11568,10 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>0.00143</v>
+        <v>0.00144</v>
       </c>
       <c r="G139" t="n">
-        <v>0.0069278642114119</v>
+        <v>0.0069613672750641</v>
       </c>
       <c r="H139" t="n">
         <v>0.110695986329004</v>
@@ -11582,7 +11582,7 @@
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
-        <v>0.00101</v>
+        <v>0.00105</v>
       </c>
       <c r="M139" t="n">
         <v>0.00953</v>
@@ -11649,10 +11649,10 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>0.00143</v>
+        <v>0.00144</v>
       </c>
       <c r="G140" t="n">
-        <v>0.0069278642114119</v>
+        <v>0.0069613672750641</v>
       </c>
       <c r="H140" t="n">
         <v>0.110695986329004</v>
@@ -11663,7 +11663,7 @@
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
-        <v>0.00101</v>
+        <v>0.00105</v>
       </c>
       <c r="M140" t="n">
         <v>0.00953</v>
@@ -11733,7 +11733,7 @@
         <v>0.07099999999999999</v>
       </c>
       <c r="G141" t="n">
-        <v>0.142505214069448</v>
+        <v>0.142554171996541</v>
       </c>
       <c r="H141" t="n">
         <v>0.853</v>
@@ -11744,7 +11744,7 @@
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
-        <v>0.00217</v>
+        <v>0.00252</v>
       </c>
       <c r="M141" t="n">
         <v>0.31566</v>
@@ -11814,7 +11814,7 @@
         <v>0.07099999999999999</v>
       </c>
       <c r="G142" t="n">
-        <v>0.142505214069448</v>
+        <v>0.142554171996541</v>
       </c>
       <c r="H142" t="n">
         <v>0.853</v>
@@ -11825,7 +11825,7 @@
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
-        <v>0.00217</v>
+        <v>0.00252</v>
       </c>
       <c r="M142" t="n">
         <v>0.31566</v>
@@ -11968,7 +11968,7 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="G144" t="n">
-        <v>0.158286432916353</v>
+        <v>0.158318626266066</v>
       </c>
       <c r="H144" t="n">
         <v>0.865</v>
@@ -11979,7 +11979,7 @@
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
-        <v>0.0068</v>
+        <v>0.007</v>
       </c>
       <c r="M144" t="n">
         <v>0.3282</v>
@@ -12045,7 +12045,7 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="G145" t="n">
-        <v>0.158286432916353</v>
+        <v>0.158318626266066</v>
       </c>
       <c r="H145" t="n">
         <v>0.865</v>
@@ -12056,7 +12056,7 @@
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
-        <v>0.0068</v>
+        <v>0.007</v>
       </c>
       <c r="M145" t="n">
         <v>0.3282</v>
@@ -12122,7 +12122,7 @@
         <v>0.173</v>
       </c>
       <c r="G146" t="n">
-        <v>0.396347255927081</v>
+        <v>0.396365091172437</v>
       </c>
       <c r="H146" t="n">
         <v>3.9</v>
@@ -12199,7 +12199,7 @@
         <v>0.173</v>
       </c>
       <c r="G147" t="n">
-        <v>0.396347255927081</v>
+        <v>0.396365091172437</v>
       </c>
       <c r="H147" t="n">
         <v>3.9</v>
@@ -12276,7 +12276,7 @@
         <v>0.0175</v>
       </c>
       <c r="G148" t="n">
-        <v>0.109721582295234</v>
+        <v>0.109722314079899</v>
       </c>
       <c r="H148" t="n">
         <v>1.814</v>
@@ -12353,7 +12353,7 @@
         <v>0.0175</v>
       </c>
       <c r="G149" t="n">
-        <v>0.109721582295234</v>
+        <v>0.109722314079899</v>
       </c>
       <c r="H149" t="n">
         <v>1.814</v>
@@ -12592,7 +12592,7 @@
         <v>2.9</v>
       </c>
       <c r="G152" t="n">
-        <v>2.80917436691885</v>
+        <v>2.80910821488014</v>
       </c>
       <c r="H152" t="n">
         <v>7.2</v>
@@ -12673,7 +12673,7 @@
         <v>0.01</v>
       </c>
       <c r="G153" t="n">
-        <v>0.0105566228692308</v>
+        <v>0.0105572178036047</v>
       </c>
       <c r="H153" t="n">
         <v>0.024</v>
@@ -12754,7 +12754,7 @@
         <v>0.01</v>
       </c>
       <c r="G154" t="n">
-        <v>0.0105566228692308</v>
+        <v>0.0105572178036047</v>
       </c>
       <c r="H154" t="n">
         <v>0.024</v>
@@ -13249,10 +13249,10 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>0.00143</v>
+        <v>0.00144</v>
       </c>
       <c r="G160" t="n">
-        <v>0.0047943271461972</v>
+        <v>0.0048457030907909</v>
       </c>
       <c r="H160" t="n">
         <v>0.110695986329004</v>
@@ -13263,10 +13263,10 @@
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
-        <v>0.00101</v>
+        <v>0.00105</v>
       </c>
       <c r="M160" t="n">
-        <v>0.00239</v>
+        <v>0.00253</v>
       </c>
       <c r="N160" t="n">
         <v>0.00751</v>
@@ -13330,10 +13330,10 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>0.00143</v>
+        <v>0.00144</v>
       </c>
       <c r="G161" t="n">
-        <v>0.0047943271461972</v>
+        <v>0.0048457030907909</v>
       </c>
       <c r="H161" t="n">
         <v>0.110695986329004</v>
@@ -13344,10 +13344,10 @@
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
-        <v>0.00101</v>
+        <v>0.00105</v>
       </c>
       <c r="M161" t="n">
-        <v>0.00239</v>
+        <v>0.00253</v>
       </c>
       <c r="N161" t="n">
         <v>0.00751</v>
@@ -13414,7 +13414,7 @@
         <v>0.07530000000000001</v>
       </c>
       <c r="G162" t="n">
-        <v>0.15698955844098</v>
+        <v>0.157049261732251</v>
       </c>
       <c r="H162" t="n">
         <v>0.853</v>
@@ -13425,7 +13425,7 @@
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
-        <v>0.00217</v>
+        <v>0.00252</v>
       </c>
       <c r="M162" t="n">
         <v>0.31846</v>
@@ -13495,7 +13495,7 @@
         <v>0.07530000000000001</v>
       </c>
       <c r="G163" t="n">
-        <v>0.15698955844098</v>
+        <v>0.157049261732251</v>
       </c>
       <c r="H163" t="n">
         <v>0.853</v>
@@ -13506,7 +13506,7 @@
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
-        <v>0.00217</v>
+        <v>0.00252</v>
       </c>
       <c r="M163" t="n">
         <v>0.31846</v>
@@ -13649,7 +13649,7 @@
         <v>0.08799999999999999</v>
       </c>
       <c r="G165" t="n">
-        <v>0.170403791398033</v>
+        <v>0.170451782664118</v>
       </c>
       <c r="H165" t="n">
         <v>0.865</v>
@@ -13660,7 +13660,7 @@
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
-        <v>0.0068</v>
+        <v>0.007</v>
       </c>
       <c r="M165" t="n">
         <v>0.3313</v>
@@ -13726,7 +13726,7 @@
         <v>0.08799999999999999</v>
       </c>
       <c r="G166" t="n">
-        <v>0.170403791398033</v>
+        <v>0.170451782664118</v>
       </c>
       <c r="H166" t="n">
         <v>0.865</v>
@@ -13737,7 +13737,7 @@
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
-        <v>0.0068</v>
+        <v>0.007</v>
       </c>
       <c r="M166" t="n">
         <v>0.3313</v>
@@ -13803,7 +13803,7 @@
         <v>0.2265</v>
       </c>
       <c r="G167" t="n">
-        <v>0.359647255927081</v>
+        <v>0.359665091172437</v>
       </c>
       <c r="H167" t="n">
         <v>2.816</v>
@@ -13880,7 +13880,7 @@
         <v>0.2265</v>
       </c>
       <c r="G168" t="n">
-        <v>0.359647255927081</v>
+        <v>0.359665091172437</v>
       </c>
       <c r="H168" t="n">
         <v>2.816</v>
@@ -14273,7 +14273,7 @@
         <v>1.25</v>
       </c>
       <c r="G173" t="n">
-        <v>2.44029086440788</v>
+        <v>2.4402234642175</v>
       </c>
       <c r="H173" t="n">
         <v>7.2</v>
@@ -14354,7 +14354,7 @@
         <v>0.011</v>
       </c>
       <c r="G174" t="n">
-        <v>0.0116899562025641</v>
+        <v>0.011690551136938</v>
       </c>
       <c r="H174" t="n">
         <v>0.043</v>
@@ -14435,7 +14435,7 @@
         <v>0.011</v>
       </c>
       <c r="G175" t="n">
-        <v>0.0116899562025641</v>
+        <v>0.011690551136938</v>
       </c>
       <c r="H175" t="n">
         <v>0.043</v>
@@ -14516,13 +14516,13 @@
         <v>150</v>
       </c>
       <c r="G176" t="n">
-        <v>840.650366913003</v>
+        <v>836.567202911708</v>
       </c>
       <c r="H176" t="n">
         <v>9678</v>
       </c>
       <c r="I176" t="n">
-        <v>6234.51101</v>
+        <v>6112.01609</v>
       </c>
       <c r="J176" t="n">
         <v>18.3333333333333</v>
@@ -14601,13 +14601,13 @@
         <v>150</v>
       </c>
       <c r="G177" t="n">
-        <v>840.650366913003</v>
+        <v>836.567202911708</v>
       </c>
       <c r="H177" t="n">
         <v>9678</v>
       </c>
       <c r="I177" t="n">
-        <v>6234.51101</v>
+        <v>6112.01609</v>
       </c>
       <c r="J177" t="n">
         <v>18.3333333333333</v>
@@ -14686,13 +14686,13 @@
         <v>150</v>
       </c>
       <c r="G178" t="n">
-        <v>840.650366913003</v>
+        <v>836.567202911708</v>
       </c>
       <c r="H178" t="n">
         <v>9678</v>
       </c>
       <c r="I178" t="n">
-        <v>6234.51101</v>
+        <v>6112.01609</v>
       </c>
       <c r="J178" t="n">
         <v>18.3333333333333</v>
@@ -14771,13 +14771,13 @@
         <v>150</v>
       </c>
       <c r="G179" t="n">
-        <v>840.650366913003</v>
+        <v>836.567202911708</v>
       </c>
       <c r="H179" t="n">
         <v>9678</v>
       </c>
       <c r="I179" t="n">
-        <v>6234.51101</v>
+        <v>6112.01609</v>
       </c>
       <c r="J179" t="n">
         <v>18.3333333333333</v>
@@ -14930,10 +14930,10 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>0.00167</v>
+        <v>0.00176</v>
       </c>
       <c r="G181" t="n">
-        <v>0.0059692651765707</v>
+        <v>0.0060521799391188</v>
       </c>
       <c r="H181" t="n">
         <v>0.110695986329004</v>
@@ -14944,10 +14944,10 @@
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
-        <v>0.00176</v>
+        <v>0.00181</v>
       </c>
       <c r="M181" t="n">
-        <v>0.0046</v>
+        <v>0.00481</v>
       </c>
       <c r="N181" t="n">
         <v>0.01009</v>
@@ -15011,10 +15011,10 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>0.00167</v>
+        <v>0.00176</v>
       </c>
       <c r="G182" t="n">
-        <v>0.0059692651765707</v>
+        <v>0.0060521799391188</v>
       </c>
       <c r="H182" t="n">
         <v>0.110695986329004</v>
@@ -15025,10 +15025,10 @@
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
-        <v>0.00176</v>
+        <v>0.00181</v>
       </c>
       <c r="M182" t="n">
-        <v>0.0046</v>
+        <v>0.00481</v>
       </c>
       <c r="N182" t="n">
         <v>0.01009</v>
@@ -15095,7 +15095,7 @@
         <v>0.129</v>
       </c>
       <c r="G183" t="n">
-        <v>0.17743455844098</v>
+        <v>0.177494261732251</v>
       </c>
       <c r="H183" t="n">
         <v>0.853</v>
@@ -15106,7 +15106,7 @@
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
-        <v>0.00388</v>
+        <v>0.00413</v>
       </c>
       <c r="M183" t="n">
         <v>0.32074</v>
@@ -15176,7 +15176,7 @@
         <v>0.129</v>
       </c>
       <c r="G184" t="n">
-        <v>0.17743455844098</v>
+        <v>0.177494261732251</v>
       </c>
       <c r="H184" t="n">
         <v>0.853</v>
@@ -15187,7 +15187,7 @@
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
-        <v>0.00388</v>
+        <v>0.00413</v>
       </c>
       <c r="M184" t="n">
         <v>0.32074</v>
@@ -15330,7 +15330,7 @@
         <v>0.14</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1924204580647</v>
+        <v>0.192468449330785</v>
       </c>
       <c r="H186" t="n">
         <v>0.865</v>
@@ -15407,7 +15407,7 @@
         <v>0.14</v>
       </c>
       <c r="G187" t="n">
-        <v>0.1924204580647</v>
+        <v>0.192468449330785</v>
       </c>
       <c r="H187" t="n">
         <v>0.865</v>
@@ -15484,7 +15484,7 @@
         <v>0.298</v>
       </c>
       <c r="G188" t="n">
-        <v>0.404713922593748</v>
+        <v>0.404731757839104</v>
       </c>
       <c r="H188" t="n">
         <v>2.816</v>
@@ -15561,7 +15561,7 @@
         <v>0.298</v>
       </c>
       <c r="G189" t="n">
-        <v>0.404713922593748</v>
+        <v>0.404731757839104</v>
       </c>
       <c r="H189" t="n">
         <v>2.816</v>
@@ -16035,7 +16035,7 @@
         <v>0.012</v>
       </c>
       <c r="G195" t="n">
-        <v>0.0123566228692308</v>
+        <v>0.0123572178036047</v>
       </c>
       <c r="H195" t="n">
         <v>0.043</v>
@@ -16116,7 +16116,7 @@
         <v>0.012</v>
       </c>
       <c r="G196" t="n">
-        <v>0.0123566228692308</v>
+        <v>0.0123572178036047</v>
       </c>
       <c r="H196" t="n">
         <v>0.043</v>
@@ -16197,13 +16197,13 @@
         <v>175</v>
       </c>
       <c r="G197" t="n">
-        <v>832.36703357967</v>
+        <v>828.2838695783749</v>
       </c>
       <c r="H197" t="n">
         <v>9678</v>
       </c>
       <c r="I197" t="n">
-        <v>5728.51101</v>
+        <v>5606.01609</v>
       </c>
       <c r="J197" t="n">
         <v>20</v>
@@ -16282,13 +16282,13 @@
         <v>175</v>
       </c>
       <c r="G198" t="n">
-        <v>832.36703357967</v>
+        <v>828.2838695783749</v>
       </c>
       <c r="H198" t="n">
         <v>9678</v>
       </c>
       <c r="I198" t="n">
-        <v>5728.51101</v>
+        <v>5606.01609</v>
       </c>
       <c r="J198" t="n">
         <v>20</v>
@@ -16367,13 +16367,13 @@
         <v>175</v>
       </c>
       <c r="G199" t="n">
-        <v>832.36703357967</v>
+        <v>828.2838695783749</v>
       </c>
       <c r="H199" t="n">
         <v>9678</v>
       </c>
       <c r="I199" t="n">
-        <v>5728.51101</v>
+        <v>5606.01609</v>
       </c>
       <c r="J199" t="n">
         <v>20</v>
@@ -16452,13 +16452,13 @@
         <v>175</v>
       </c>
       <c r="G200" t="n">
-        <v>832.36703357967</v>
+        <v>828.2838695783749</v>
       </c>
       <c r="H200" t="n">
         <v>9678</v>
       </c>
       <c r="I200" t="n">
-        <v>5728.51101</v>
+        <v>5606.01609</v>
       </c>
       <c r="J200" t="n">
         <v>20</v>
@@ -16611,10 +16611,10 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>0.00229</v>
+        <v>0.00242</v>
       </c>
       <c r="G202" t="n">
-        <v>0.0058680807742715</v>
+        <v>0.0059821507990473</v>
       </c>
       <c r="H202" t="n">
         <v>0.110695986329004</v>
@@ -16625,13 +16625,13 @@
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
-        <v>0.00235</v>
+        <v>0.00251</v>
       </c>
       <c r="M202" t="n">
-        <v>0.00562</v>
+        <v>0.00575</v>
       </c>
       <c r="N202" t="n">
-        <v>0.00752</v>
+        <v>0.00784</v>
       </c>
       <c r="O202" t="n">
         <v>1826486</v>
@@ -16692,10 +16692,10 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>0.00229</v>
+        <v>0.00242</v>
       </c>
       <c r="G203" t="n">
-        <v>0.0058680807742715</v>
+        <v>0.0059821507990473</v>
       </c>
       <c r="H203" t="n">
         <v>0.110695986329004</v>
@@ -16706,13 +16706,13 @@
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
-        <v>0.00235</v>
+        <v>0.00251</v>
       </c>
       <c r="M203" t="n">
-        <v>0.00562</v>
+        <v>0.00575</v>
       </c>
       <c r="N203" t="n">
-        <v>0.00752</v>
+        <v>0.00784</v>
       </c>
       <c r="O203" t="n">
         <v>1826486</v>
@@ -16776,7 +16776,7 @@
         <v>0.144</v>
       </c>
       <c r="G204" t="n">
-        <v>0.188677662879993</v>
+        <v>0.188766298181406</v>
       </c>
       <c r="H204" t="n">
         <v>0.853</v>
@@ -16787,7 +16787,7 @@
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
-        <v>0.00475</v>
+        <v>0.00505</v>
       </c>
       <c r="M204" t="n">
         <v>0.3192</v>
@@ -16857,7 +16857,7 @@
         <v>0.144</v>
       </c>
       <c r="G205" t="n">
-        <v>0.188677662879993</v>
+        <v>0.188766298181406</v>
       </c>
       <c r="H205" t="n">
         <v>0.853</v>
@@ -16868,7 +16868,7 @@
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
-        <v>0.00475</v>
+        <v>0.00505</v>
       </c>
       <c r="M205" t="n">
         <v>0.3192</v>
@@ -17011,7 +17011,7 @@
         <v>0.155</v>
       </c>
       <c r="G207" t="n">
-        <v>0.202078765762212</v>
+        <v>0.202149146233585</v>
       </c>
       <c r="H207" t="n">
         <v>0.865</v>
@@ -17022,7 +17022,7 @@
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
-        <v>0.01373</v>
+        <v>0.01417</v>
       </c>
       <c r="M207" t="n">
         <v>0.331</v>
@@ -17088,7 +17088,7 @@
         <v>0.155</v>
       </c>
       <c r="G208" t="n">
-        <v>0.202078765762212</v>
+        <v>0.202149146233585</v>
       </c>
       <c r="H208" t="n">
         <v>0.865</v>
@@ -17099,7 +17099,7 @@
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
-        <v>0.01373</v>
+        <v>0.01417</v>
       </c>
       <c r="M208" t="n">
         <v>0.331</v>
@@ -17165,7 +17165,7 @@
         <v>0.31</v>
       </c>
       <c r="G209" t="n">
-        <v>0.347363922593748</v>
+        <v>0.347381757839104</v>
       </c>
       <c r="H209" t="n">
         <v>1.36</v>
@@ -17242,7 +17242,7 @@
         <v>0.31</v>
       </c>
       <c r="G210" t="n">
-        <v>0.347363922593748</v>
+        <v>0.347381757839104</v>
       </c>
       <c r="H210" t="n">
         <v>1.36</v>
@@ -17716,7 +17716,7 @@
         <v>0.011</v>
       </c>
       <c r="G216" t="n">
-        <v>0.0113610099015862</v>
+        <v>0.01136126745011</v>
       </c>
       <c r="H216" t="n">
         <v>0.043</v>
@@ -17797,7 +17797,7 @@
         <v>0.011</v>
       </c>
       <c r="G217" t="n">
-        <v>0.0113610099015862</v>
+        <v>0.01136126745011</v>
       </c>
       <c r="H217" t="n">
         <v>0.043</v>
@@ -17878,10 +17878,10 @@
         <v>155</v>
       </c>
       <c r="G218" t="n">
-        <v>453.017620944486</v>
+        <v>448.793658184525</v>
       </c>
       <c r="H218" t="n">
-        <v>6257.02201478021</v>
+        <v>6012.03217470248</v>
       </c>
       <c r="I218" t="n">
         <v>1860</v>
@@ -17963,10 +17963,10 @@
         <v>155</v>
       </c>
       <c r="G219" t="n">
-        <v>453.017620944486</v>
+        <v>448.793658184525</v>
       </c>
       <c r="H219" t="n">
-        <v>6257.02201478021</v>
+        <v>6012.03217470248</v>
       </c>
       <c r="I219" t="n">
         <v>1860</v>
@@ -18048,10 +18048,10 @@
         <v>155</v>
       </c>
       <c r="G220" t="n">
-        <v>453.017620944486</v>
+        <v>448.793658184525</v>
       </c>
       <c r="H220" t="n">
-        <v>6257.02201478021</v>
+        <v>6012.03217470248</v>
       </c>
       <c r="I220" t="n">
         <v>1860</v>
@@ -18133,10 +18133,10 @@
         <v>155</v>
       </c>
       <c r="G221" t="n">
-        <v>453.017620944486</v>
+        <v>448.793658184525</v>
       </c>
       <c r="H221" t="n">
-        <v>6257.02201478021</v>
+        <v>6012.03217470248</v>
       </c>
       <c r="I221" t="n">
         <v>1860</v>
@@ -18292,10 +18292,10 @@
         </is>
       </c>
       <c r="F223" t="n">
-        <v>0.00235</v>
+        <v>0.00251</v>
       </c>
       <c r="G223" t="n">
-        <v>0.0043501399352442</v>
+        <v>0.0044651965698658</v>
       </c>
       <c r="H223" t="n">
         <v>0.0415668342691724</v>
@@ -18306,13 +18306,13 @@
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
-        <v>0.00244</v>
+        <v>0.00258</v>
       </c>
       <c r="M223" t="n">
-        <v>0.00597</v>
+        <v>0.00602</v>
       </c>
       <c r="N223" t="n">
-        <v>0.00771</v>
+        <v>0.008</v>
       </c>
       <c r="O223" t="n">
         <v>1826486</v>
@@ -18373,10 +18373,10 @@
         </is>
       </c>
       <c r="F224" t="n">
-        <v>0.00235</v>
+        <v>0.00251</v>
       </c>
       <c r="G224" t="n">
-        <v>0.0043501399352442</v>
+        <v>0.0044651965698658</v>
       </c>
       <c r="H224" t="n">
         <v>0.0415668342691724</v>
@@ -18387,13 +18387,13 @@
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
-        <v>0.00244</v>
+        <v>0.00258</v>
       </c>
       <c r="M224" t="n">
-        <v>0.00597</v>
+        <v>0.00602</v>
       </c>
       <c r="N224" t="n">
-        <v>0.00771</v>
+        <v>0.008</v>
       </c>
       <c r="O224" t="n">
         <v>1826486</v>
@@ -18457,7 +18457,7 @@
         <v>0.118</v>
       </c>
       <c r="G225" t="n">
-        <v>0.189293990206689</v>
+        <v>0.189413758410358</v>
       </c>
       <c r="H225" t="n">
         <v>0.853</v>
@@ -18468,7 +18468,7 @@
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
-        <v>0.00606</v>
+        <v>0.0067</v>
       </c>
       <c r="M225" t="n">
         <v>0.39392</v>
@@ -18538,7 +18538,7 @@
         <v>0.118</v>
       </c>
       <c r="G226" t="n">
-        <v>0.189293990206689</v>
+        <v>0.189413758410358</v>
       </c>
       <c r="H226" t="n">
         <v>0.853</v>
@@ -18549,7 +18549,7 @@
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
-        <v>0.00606</v>
+        <v>0.0067</v>
       </c>
       <c r="M226" t="n">
         <v>0.39392</v>
@@ -18692,7 +18692,7 @@
         <v>0.125</v>
       </c>
       <c r="G228" t="n">
-        <v>0.198772098535009</v>
+        <v>0.19883571182571</v>
       </c>
       <c r="H228" t="n">
         <v>0.865</v>
@@ -18703,7 +18703,7 @@
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
-        <v>0.01202</v>
+        <v>0.01249</v>
       </c>
       <c r="M228" t="n">
         <v>0.39927</v>
@@ -18769,7 +18769,7 @@
         <v>0.125</v>
       </c>
       <c r="G229" t="n">
-        <v>0.198772098535009</v>
+        <v>0.19883571182571</v>
       </c>
       <c r="H229" t="n">
         <v>0.865</v>
@@ -18780,7 +18780,7 @@
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
-        <v>0.01202</v>
+        <v>0.01249</v>
       </c>
       <c r="M229" t="n">
         <v>0.39927</v>
@@ -19316,10 +19316,10 @@
         <v>0.8</v>
       </c>
       <c r="G236" t="n">
-        <v>1.9085566330618</v>
+        <v>1.92432725956804</v>
       </c>
       <c r="H236" t="n">
-        <v>10.4077280845227</v>
+        <v>11.3066537953782</v>
       </c>
       <c r="I236" t="n">
         <v>5.63</v>
@@ -19559,10 +19559,10 @@
         <v>170</v>
       </c>
       <c r="G239" t="n">
-        <v>586.310724392762</v>
+        <v>582.086761632801</v>
       </c>
       <c r="H239" t="n">
-        <v>6257.02201478021</v>
+        <v>6012.03217470248</v>
       </c>
       <c r="I239" t="n">
         <v>3960</v>
@@ -19644,10 +19644,10 @@
         <v>170</v>
       </c>
       <c r="G240" t="n">
-        <v>586.310724392762</v>
+        <v>582.086761632801</v>
       </c>
       <c r="H240" t="n">
-        <v>6257.02201478021</v>
+        <v>6012.03217470248</v>
       </c>
       <c r="I240" t="n">
         <v>3960</v>
@@ -19729,10 +19729,10 @@
         <v>170</v>
       </c>
       <c r="G241" t="n">
-        <v>586.310724392762</v>
+        <v>582.086761632801</v>
       </c>
       <c r="H241" t="n">
-        <v>6257.02201478021</v>
+        <v>6012.03217470248</v>
       </c>
       <c r="I241" t="n">
         <v>3960</v>
@@ -19814,10 +19814,10 @@
         <v>170</v>
       </c>
       <c r="G242" t="n">
-        <v>586.310724392762</v>
+        <v>582.086761632801</v>
       </c>
       <c r="H242" t="n">
-        <v>6257.02201478021</v>
+        <v>6012.03217470248</v>
       </c>
       <c r="I242" t="n">
         <v>3960</v>
@@ -19976,7 +19976,7 @@
         <v>0.00271</v>
       </c>
       <c r="G244" t="n">
-        <v>0.0045177917842514</v>
+        <v>0.0046105273006005</v>
       </c>
       <c r="H244" t="n">
         <v>0.0415668342691724</v>
@@ -19987,10 +19987,10 @@
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
-        <v>0.00292</v>
+        <v>0.00306</v>
       </c>
       <c r="M244" t="n">
-        <v>0.00663</v>
+        <v>0.00694</v>
       </c>
       <c r="N244" t="n">
         <v>0.00916</v>
@@ -20057,7 +20057,7 @@
         <v>0.00271</v>
       </c>
       <c r="G245" t="n">
-        <v>0.0045177917842514</v>
+        <v>0.0046105273006005</v>
       </c>
       <c r="H245" t="n">
         <v>0.0415668342691724</v>
@@ -20068,10 +20068,10 @@
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
-        <v>0.00292</v>
+        <v>0.00306</v>
       </c>
       <c r="M245" t="n">
-        <v>0.00663</v>
+        <v>0.00694</v>
       </c>
       <c r="N245" t="n">
         <v>0.00916</v>
@@ -20138,7 +20138,7 @@
         <v>0.118</v>
       </c>
       <c r="G246" t="n">
-        <v>0.17131716043969</v>
+        <v>0.171420483586735</v>
       </c>
       <c r="H246" t="n">
         <v>0.834</v>
@@ -20149,7 +20149,7 @@
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
-        <v>0.007889999999999999</v>
+        <v>0.008240000000000001</v>
       </c>
       <c r="M246" t="n">
         <v>0.32158</v>
@@ -20219,7 +20219,7 @@
         <v>0.118</v>
       </c>
       <c r="G247" t="n">
-        <v>0.17131716043969</v>
+        <v>0.171420483586735</v>
       </c>
       <c r="H247" t="n">
         <v>0.834</v>
@@ -20230,7 +20230,7 @@
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
-        <v>0.007889999999999999</v>
+        <v>0.008240000000000001</v>
       </c>
       <c r="M247" t="n">
         <v>0.32158</v>
@@ -20373,7 +20373,7 @@
         <v>0.125</v>
       </c>
       <c r="G249" t="n">
-        <v>0.18025575838303</v>
+        <v>0.180301642498195</v>
       </c>
       <c r="H249" t="n">
         <v>0.85</v>
@@ -20384,7 +20384,7 @@
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
-        <v>0.01373</v>
+        <v>0.01417</v>
       </c>
       <c r="M249" t="n">
         <v>0.3344</v>
@@ -20450,7 +20450,7 @@
         <v>0.125</v>
       </c>
       <c r="G250" t="n">
-        <v>0.18025575838303</v>
+        <v>0.180301642498195</v>
       </c>
       <c r="H250" t="n">
         <v>0.85</v>
@@ -20461,7 +20461,7 @@
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
-        <v>0.01373</v>
+        <v>0.01417</v>
       </c>
       <c r="M250" t="n">
         <v>0.3344</v>
@@ -20997,10 +20997,10 @@
         <v>1.2</v>
       </c>
       <c r="G257" t="n">
-        <v>2.13888800150933</v>
+        <v>2.15494024634604</v>
       </c>
       <c r="H257" t="n">
-        <v>10.4077280845227</v>
+        <v>11.3066537953782</v>
       </c>
       <c r="I257" t="n">
         <v>5.64</v>
@@ -21240,10 +21240,10 @@
         <v>195</v>
       </c>
       <c r="G260" t="n">
-        <v>585.121069220348</v>
+        <v>580.897106460388</v>
       </c>
       <c r="H260" t="n">
-        <v>6257.02201478021</v>
+        <v>6012.03217470248</v>
       </c>
       <c r="I260" t="n">
         <v>3800</v>
@@ -21325,10 +21325,10 @@
         <v>195</v>
       </c>
       <c r="G261" t="n">
-        <v>585.121069220348</v>
+        <v>580.897106460388</v>
       </c>
       <c r="H261" t="n">
-        <v>6257.02201478021</v>
+        <v>6012.03217470248</v>
       </c>
       <c r="I261" t="n">
         <v>3800</v>
@@ -21410,10 +21410,10 @@
         <v>195</v>
       </c>
       <c r="G262" t="n">
-        <v>585.121069220348</v>
+        <v>580.897106460388</v>
       </c>
       <c r="H262" t="n">
-        <v>6257.02201478021</v>
+        <v>6012.03217470248</v>
       </c>
       <c r="I262" t="n">
         <v>3800</v>
@@ -21495,10 +21495,10 @@
         <v>195</v>
       </c>
       <c r="G263" t="n">
-        <v>585.121069220348</v>
+        <v>580.897106460388</v>
       </c>
       <c r="H263" t="n">
-        <v>6257.02201478021</v>
+        <v>6012.03217470248</v>
       </c>
       <c r="I263" t="n">
         <v>3800</v>
@@ -21657,7 +21657,7 @@
         <v>0.00303</v>
       </c>
       <c r="G265" t="n">
-        <v>0.0051008199832973</v>
+        <v>0.005169109953534</v>
       </c>
       <c r="H265" t="n">
         <v>0.0415668342691724</v>
@@ -21668,10 +21668,10 @@
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
-        <v>0.00296</v>
+        <v>0.00302</v>
       </c>
       <c r="M265" t="n">
-        <v>0.00666</v>
+        <v>0.00697</v>
       </c>
       <c r="N265" t="n">
         <v>0.009220000000000001</v>
@@ -21738,7 +21738,7 @@
         <v>0.00303</v>
       </c>
       <c r="G266" t="n">
-        <v>0.0051008199832973</v>
+        <v>0.005169109953534</v>
       </c>
       <c r="H266" t="n">
         <v>0.0415668342691724</v>
@@ -21749,10 +21749,10 @@
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
-        <v>0.00296</v>
+        <v>0.00302</v>
       </c>
       <c r="M266" t="n">
-        <v>0.00666</v>
+        <v>0.00697</v>
       </c>
       <c r="N266" t="n">
         <v>0.009220000000000001</v>
@@ -21819,7 +21819,7 @@
         <v>0.118</v>
       </c>
       <c r="G267" t="n">
-        <v>0.180183298344108</v>
+        <v>0.180269286505738</v>
       </c>
       <c r="H267" t="n">
         <v>0.834</v>
@@ -21900,7 +21900,7 @@
         <v>0.118</v>
       </c>
       <c r="G268" t="n">
-        <v>0.180183298344108</v>
+        <v>0.180269286505738</v>
       </c>
       <c r="H268" t="n">
         <v>0.834</v>
@@ -22054,7 +22054,7 @@
         <v>0.125</v>
       </c>
       <c r="G270" t="n">
-        <v>0.188865224333864</v>
+        <v>0.188895042771362</v>
       </c>
       <c r="H270" t="n">
         <v>0.85</v>
@@ -22065,7 +22065,7 @@
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
-        <v>0.01554</v>
+        <v>0.016</v>
       </c>
       <c r="M270" t="n">
         <v>0.41146</v>
@@ -22131,7 +22131,7 @@
         <v>0.125</v>
       </c>
       <c r="G271" t="n">
-        <v>0.188865224333864</v>
+        <v>0.188895042771362</v>
       </c>
       <c r="H271" t="n">
         <v>0.85</v>
@@ -22142,7 +22142,7 @@
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
-        <v>0.01554</v>
+        <v>0.016</v>
       </c>
       <c r="M271" t="n">
         <v>0.41146</v>
@@ -22490,6 +22490,1687 @@
         </is>
       </c>
     </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Oroua at Almadale Slackline</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F276" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.4192</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I276" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="M276" t="n">
+        <v>0.45575</v>
+      </c>
+      <c r="N276" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="O276" t="n">
+        <v>1826486</v>
+      </c>
+      <c r="P276" t="n">
+        <v>5549602</v>
+      </c>
+      <c r="Q276" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R276" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S276" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T276" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Oroua at Almadale Slackline</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Chlorophyll A (92nd Percentile)</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F277" t="n">
+        <v>2.825</v>
+      </c>
+      <c r="G277" t="n">
+        <v>4.40421707815708</v>
+      </c>
+      <c r="H277" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="I277" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="M277" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="N277" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="O277" t="n">
+        <v>1826486</v>
+      </c>
+      <c r="P277" t="n">
+        <v>5549602</v>
+      </c>
+      <c r="Q277" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R277" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S277" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T277" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U277" t="inlineStr">
+        <is>
+          <t>mg chl-a /m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Oroua at Almadale Slackline</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 1)</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F278" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G278" t="n">
+        <v>2.133267721478</v>
+      </c>
+      <c r="H278" t="n">
+        <v>11.3066537953782</v>
+      </c>
+      <c r="I278" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M278" t="n">
+        <v>4.383</v>
+      </c>
+      <c r="N278" t="n">
+        <v>5.442</v>
+      </c>
+      <c r="O278" t="n">
+        <v>1826486</v>
+      </c>
+      <c r="P278" t="n">
+        <v>5549602</v>
+      </c>
+      <c r="Q278" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R278" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S278" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T278" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U278" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Oroua at Almadale Slackline</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F279" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.0109491525423729</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I279" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>0.0115</v>
+      </c>
+      <c r="M279" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="N279" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="O279" t="n">
+        <v>1826486</v>
+      </c>
+      <c r="P279" t="n">
+        <v>5549602</v>
+      </c>
+      <c r="Q279" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R279" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S279" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T279" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U279" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Oroua at Almadale Slackline</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F280" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.0109491525423729</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I280" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>0.0115</v>
+      </c>
+      <c r="M280" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="N280" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="O280" t="n">
+        <v>1826486</v>
+      </c>
+      <c r="P280" t="n">
+        <v>5549602</v>
+      </c>
+      <c r="Q280" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R280" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S280" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T280" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U280" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Oroua at Almadale Slackline</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F281" t="n">
+        <v>134</v>
+      </c>
+      <c r="G281" t="n">
+        <v>519.206896551724</v>
+      </c>
+      <c r="H281" t="n">
+        <v>5200</v>
+      </c>
+      <c r="I281" t="n">
+        <v>2528</v>
+      </c>
+      <c r="J281" t="n">
+        <v>20.6896551724138</v>
+      </c>
+      <c r="K281" t="n">
+        <v>34.4827586206897</v>
+      </c>
+      <c r="L281" t="n">
+        <v>300</v>
+      </c>
+      <c r="M281" t="n">
+        <v>950.3200000000001</v>
+      </c>
+      <c r="N281" t="n">
+        <v>1542.14</v>
+      </c>
+      <c r="O281" t="n">
+        <v>1826486</v>
+      </c>
+      <c r="P281" t="n">
+        <v>5549602</v>
+      </c>
+      <c r="Q281" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R281" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S281" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T281" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U281" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Oroua at Almadale Slackline</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F282" t="n">
+        <v>134</v>
+      </c>
+      <c r="G282" t="n">
+        <v>519.206896551724</v>
+      </c>
+      <c r="H282" t="n">
+        <v>5200</v>
+      </c>
+      <c r="I282" t="n">
+        <v>2528</v>
+      </c>
+      <c r="J282" t="n">
+        <v>20.6896551724138</v>
+      </c>
+      <c r="K282" t="n">
+        <v>34.4827586206897</v>
+      </c>
+      <c r="L282" t="n">
+        <v>300</v>
+      </c>
+      <c r="M282" t="n">
+        <v>950.3200000000001</v>
+      </c>
+      <c r="N282" t="n">
+        <v>1542.14</v>
+      </c>
+      <c r="O282" t="n">
+        <v>1826486</v>
+      </c>
+      <c r="P282" t="n">
+        <v>5549602</v>
+      </c>
+      <c r="Q282" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R282" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S282" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T282" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U282" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Oroua at Almadale Slackline</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F283" t="n">
+        <v>134</v>
+      </c>
+      <c r="G283" t="n">
+        <v>519.206896551724</v>
+      </c>
+      <c r="H283" t="n">
+        <v>5200</v>
+      </c>
+      <c r="I283" t="n">
+        <v>2528</v>
+      </c>
+      <c r="J283" t="n">
+        <v>20.6896551724138</v>
+      </c>
+      <c r="K283" t="n">
+        <v>34.4827586206897</v>
+      </c>
+      <c r="L283" t="n">
+        <v>300</v>
+      </c>
+      <c r="M283" t="n">
+        <v>950.3200000000001</v>
+      </c>
+      <c r="N283" t="n">
+        <v>1542.14</v>
+      </c>
+      <c r="O283" t="n">
+        <v>1826486</v>
+      </c>
+      <c r="P283" t="n">
+        <v>5549602</v>
+      </c>
+      <c r="Q283" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R283" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S283" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T283" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U283" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Oroua at Almadale Slackline</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F284" t="n">
+        <v>134</v>
+      </c>
+      <c r="G284" t="n">
+        <v>519.206896551724</v>
+      </c>
+      <c r="H284" t="n">
+        <v>5200</v>
+      </c>
+      <c r="I284" t="n">
+        <v>2528</v>
+      </c>
+      <c r="J284" t="n">
+        <v>20.6896551724138</v>
+      </c>
+      <c r="K284" t="n">
+        <v>34.4827586206897</v>
+      </c>
+      <c r="L284" t="n">
+        <v>300</v>
+      </c>
+      <c r="M284" t="n">
+        <v>950.3200000000001</v>
+      </c>
+      <c r="N284" t="n">
+        <v>1542.14</v>
+      </c>
+      <c r="O284" t="n">
+        <v>1826486</v>
+      </c>
+      <c r="P284" t="n">
+        <v>5549602</v>
+      </c>
+      <c r="Q284" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R284" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S284" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T284" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U284" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Oroua at Almadale Slackline</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F285" t="n">
+        <v>110</v>
+      </c>
+      <c r="G285" t="n">
+        <v>109.766</v>
+      </c>
+      <c r="H285" t="n">
+        <v>118</v>
+      </c>
+      <c r="I285" t="n">
+        <v>118</v>
+      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>110</v>
+      </c>
+      <c r="M285" t="n">
+        <v>116.075</v>
+      </c>
+      <c r="N285" t="n">
+        <v>118</v>
+      </c>
+      <c r="O285" t="n">
+        <v>1826486</v>
+      </c>
+      <c r="P285" t="n">
+        <v>5549602</v>
+      </c>
+      <c r="Q285" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R285" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S285" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T285" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Oroua at Almadale Slackline</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F286" t="n">
+        <v>0.00294</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.004414271443973</v>
+      </c>
+      <c r="H286" t="n">
+        <v>0.0364565504791997</v>
+      </c>
+      <c r="I286" t="n">
+        <v>0.01901</v>
+      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>0.00324</v>
+      </c>
+      <c r="M286" t="n">
+        <v>0.00572</v>
+      </c>
+      <c r="N286" t="n">
+        <v>0.009169999999999999</v>
+      </c>
+      <c r="O286" t="n">
+        <v>1826486</v>
+      </c>
+      <c r="P286" t="n">
+        <v>5549602</v>
+      </c>
+      <c r="Q286" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R286" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S286" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T286" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U286" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Oroua at Almadale Slackline</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F287" t="n">
+        <v>0.00294</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.004414271443973</v>
+      </c>
+      <c r="H287" t="n">
+        <v>0.0364565504791997</v>
+      </c>
+      <c r="I287" t="n">
+        <v>0.01901</v>
+      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>0.00324</v>
+      </c>
+      <c r="M287" t="n">
+        <v>0.00572</v>
+      </c>
+      <c r="N287" t="n">
+        <v>0.009169999999999999</v>
+      </c>
+      <c r="O287" t="n">
+        <v>1826486</v>
+      </c>
+      <c r="P287" t="n">
+        <v>5549602</v>
+      </c>
+      <c r="Q287" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R287" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S287" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T287" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U287" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Oroua at Almadale Slackline</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F288" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.195964201759975</v>
+      </c>
+      <c r="H288" t="n">
+        <v>0.834</v>
+      </c>
+      <c r="I288" t="n">
+        <v>0.54045</v>
+      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>0.0225</v>
+      </c>
+      <c r="M288" t="n">
+        <v>0.42052</v>
+      </c>
+      <c r="N288" t="n">
+        <v>0.46402</v>
+      </c>
+      <c r="O288" t="n">
+        <v>1826486</v>
+      </c>
+      <c r="P288" t="n">
+        <v>5549602</v>
+      </c>
+      <c r="Q288" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R288" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S288" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T288" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U288" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Oroua at Almadale Slackline</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F289" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.195964201759975</v>
+      </c>
+      <c r="H289" t="n">
+        <v>0.834</v>
+      </c>
+      <c r="I289" t="n">
+        <v>0.54045</v>
+      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>0.0225</v>
+      </c>
+      <c r="M289" t="n">
+        <v>0.42052</v>
+      </c>
+      <c r="N289" t="n">
+        <v>0.46402</v>
+      </c>
+      <c r="O289" t="n">
+        <v>1826486</v>
+      </c>
+      <c r="P289" t="n">
+        <v>5549602</v>
+      </c>
+      <c r="Q289" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R289" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S289" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T289" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U289" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Oroua at Almadale Slackline</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F290" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="G290" t="n">
+        <v>6.0944</v>
+      </c>
+      <c r="H290" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="I290" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="M290" t="n">
+        <v>6.8015</v>
+      </c>
+      <c r="N290" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="O290" t="n">
+        <v>1826486</v>
+      </c>
+      <c r="P290" t="n">
+        <v>5549602</v>
+      </c>
+      <c r="Q290" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R290" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S290" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T290" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Oroua at Almadale Slackline</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr"/>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F291" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.203598432601871</v>
+      </c>
+      <c r="H291" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I291" t="n">
+        <v>0.5519500000000001</v>
+      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="M291" t="n">
+        <v>0.42623</v>
+      </c>
+      <c r="N291" t="n">
+        <v>0.46958</v>
+      </c>
+      <c r="O291" t="n">
+        <v>1826486</v>
+      </c>
+      <c r="P291" t="n">
+        <v>5549602</v>
+      </c>
+      <c r="Q291" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R291" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S291" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T291" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U291" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Oroua at Almadale Slackline</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr"/>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F292" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.203598432601871</v>
+      </c>
+      <c r="H292" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I292" t="n">
+        <v>0.5519500000000001</v>
+      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="M292" t="n">
+        <v>0.42623</v>
+      </c>
+      <c r="N292" t="n">
+        <v>0.46958</v>
+      </c>
+      <c r="O292" t="n">
+        <v>1826486</v>
+      </c>
+      <c r="P292" t="n">
+        <v>5549602</v>
+      </c>
+      <c r="Q292" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R292" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S292" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T292" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U292" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Oroua at Almadale Slackline</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr"/>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F293" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.312881355932203</v>
+      </c>
+      <c r="H293" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="I293" t="n">
+        <v>0.6965</v>
+      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="M293" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="N293" t="n">
+        <v>0.6502</v>
+      </c>
+      <c r="O293" t="n">
+        <v>1826486</v>
+      </c>
+      <c r="P293" t="n">
+        <v>5549602</v>
+      </c>
+      <c r="Q293" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R293" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S293" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T293" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U293" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Oroua at Almadale Slackline</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr"/>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F294" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.312881355932203</v>
+      </c>
+      <c r="H294" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="I294" t="n">
+        <v>0.6965</v>
+      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="M294" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="N294" t="n">
+        <v>0.6502</v>
+      </c>
+      <c r="O294" t="n">
+        <v>1826486</v>
+      </c>
+      <c r="P294" t="n">
+        <v>5549602</v>
+      </c>
+      <c r="Q294" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R294" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S294" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T294" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U294" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Oroua at Almadale Slackline</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr"/>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F295" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.055135593220339</v>
+      </c>
+      <c r="H295" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="I295" t="n">
+        <v>0.1795</v>
+      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>0.0225</v>
+      </c>
+      <c r="M295" t="n">
+        <v>0.08894000000000001</v>
+      </c>
+      <c r="N295" t="n">
+        <v>0.16392</v>
+      </c>
+      <c r="O295" t="n">
+        <v>1826486</v>
+      </c>
+      <c r="P295" t="n">
+        <v>5549602</v>
+      </c>
+      <c r="Q295" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R295" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S295" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T295" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U295" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Oroua at Almadale Slackline</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr"/>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F296" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.055135593220339</v>
+      </c>
+      <c r="H296" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="I296" t="n">
+        <v>0.1795</v>
+      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>0.0225</v>
+      </c>
+      <c r="M296" t="n">
+        <v>0.08894000000000001</v>
+      </c>
+      <c r="N296" t="n">
+        <v>0.16392</v>
+      </c>
+      <c r="O296" t="n">
+        <v>1826486</v>
+      </c>
+      <c r="P296" t="n">
+        <v>5549602</v>
+      </c>
+      <c r="Q296" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R296" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S296" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T296" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U296" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/OrouaatAlmadaleSlackline_4c8ea80f1e.xlsx
+++ b/state_results/Rivers/OrouaatAlmadaleSlackline_4c8ea80f1e.xlsx
@@ -1680,10 +1680,10 @@
         <v>1.1</v>
       </c>
       <c r="G16" t="n">
-        <v>2.00402363786458</v>
+        <v>2.06458024728736</v>
       </c>
       <c r="H16" t="n">
-        <v>10.3784766094931</v>
+        <v>10.5779571625545</v>
       </c>
       <c r="I16" t="n">
         <v>5</v>
@@ -2972,13 +2972,13 @@
         <v>1.7</v>
       </c>
       <c r="G32" t="n">
-        <v>2.30107498490141</v>
+        <v>2.39321024496412</v>
       </c>
       <c r="H32" t="n">
-        <v>11.2858485911156</v>
+        <v>10.6039798598321</v>
       </c>
       <c r="I32" t="n">
-        <v>7.92808</v>
+        <v>8.91737</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -2986,10 +2986,10 @@
         <v>3.775</v>
       </c>
       <c r="M32" t="n">
-        <v>4.19659</v>
+        <v>4.37627</v>
       </c>
       <c r="N32" t="n">
-        <v>5.025</v>
+        <v>5.21015</v>
       </c>
       <c r="O32" t="n">
         <v>1826486</v>
@@ -4418,13 +4418,13 @@
         <v>2.25</v>
       </c>
       <c r="G50" t="n">
-        <v>2.51092961397183</v>
+        <v>2.6064772910739</v>
       </c>
       <c r="H50" t="n">
-        <v>11.2858485911156</v>
+        <v>10.6039798598321</v>
       </c>
       <c r="I50" t="n">
-        <v>8.16783</v>
+        <v>9.031510000000001</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -4432,10 +4432,10 @@
         <v>3.95</v>
       </c>
       <c r="M50" t="n">
-        <v>4.00944</v>
+        <v>4.25691</v>
       </c>
       <c r="N50" t="n">
-        <v>5.22496</v>
+        <v>5.68496</v>
       </c>
       <c r="O50" t="n">
         <v>1826486</v>
@@ -5945,24 +5945,24 @@
         <v>2.3</v>
       </c>
       <c r="G69" t="n">
-        <v>2.50327678421586</v>
+        <v>2.53938927058816</v>
       </c>
       <c r="H69" t="n">
-        <v>11.2858485911156</v>
+        <v>10.6039798598321</v>
       </c>
       <c r="I69" t="n">
-        <v>5.8</v>
+        <v>5.83016</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
-        <v>4.01475</v>
+        <v>4.05</v>
       </c>
       <c r="M69" t="n">
-        <v>4.2</v>
+        <v>4.25691</v>
       </c>
       <c r="N69" t="n">
-        <v>4.672</v>
+        <v>5.02714</v>
       </c>
       <c r="O69" t="n">
         <v>1826486</v>
@@ -7546,13 +7546,13 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>2.56208</v>
+        <v>3</v>
       </c>
       <c r="G89" t="n">
-        <v>2.8215449010036</v>
+        <v>2.85978165128015</v>
       </c>
       <c r="H89" t="n">
-        <v>11.2858485911156</v>
+        <v>10.6039798598321</v>
       </c>
       <c r="I89" t="n">
         <v>6</v>
@@ -7560,10 +7560,10 @@
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
-        <v>4.32258</v>
+        <v>4.48892</v>
       </c>
       <c r="M89" t="n">
-        <v>4.6</v>
+        <v>4.65731</v>
       </c>
       <c r="N89" t="n">
         <v>5.71</v>
@@ -9230,10 +9230,10 @@
         <v>3.9</v>
       </c>
       <c r="G110" t="n">
-        <v>3.24213313629772</v>
+        <v>3.28036988657427</v>
       </c>
       <c r="H110" t="n">
-        <v>11.2858485911156</v>
+        <v>10.6039798598321</v>
       </c>
       <c r="I110" t="n">
         <v>7.165</v>
@@ -9241,10 +9241,10 @@
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
-        <v>4.52258</v>
+        <v>4.6</v>
       </c>
       <c r="M110" t="n">
-        <v>5.415</v>
+        <v>5.44064</v>
       </c>
       <c r="N110" t="n">
         <v>6.21</v>
@@ -14516,13 +14516,13 @@
         <v>150</v>
       </c>
       <c r="G176" t="n">
-        <v>836.567202911708</v>
+        <v>874.468642829527</v>
       </c>
       <c r="H176" t="n">
         <v>9678</v>
       </c>
       <c r="I176" t="n">
-        <v>6112.01609</v>
+        <v>7249.05928</v>
       </c>
       <c r="J176" t="n">
         <v>18.3333333333333</v>
@@ -14601,13 +14601,13 @@
         <v>150</v>
       </c>
       <c r="G177" t="n">
-        <v>836.567202911708</v>
+        <v>874.468642829527</v>
       </c>
       <c r="H177" t="n">
         <v>9678</v>
       </c>
       <c r="I177" t="n">
-        <v>6112.01609</v>
+        <v>7249.05928</v>
       </c>
       <c r="J177" t="n">
         <v>18.3333333333333</v>
@@ -14686,13 +14686,13 @@
         <v>150</v>
       </c>
       <c r="G178" t="n">
-        <v>836.567202911708</v>
+        <v>874.468642829527</v>
       </c>
       <c r="H178" t="n">
         <v>9678</v>
       </c>
       <c r="I178" t="n">
-        <v>6112.01609</v>
+        <v>7249.05928</v>
       </c>
       <c r="J178" t="n">
         <v>18.3333333333333</v>
@@ -14771,13 +14771,13 @@
         <v>150</v>
       </c>
       <c r="G179" t="n">
-        <v>836.567202911708</v>
+        <v>874.468642829527</v>
       </c>
       <c r="H179" t="n">
         <v>9678</v>
       </c>
       <c r="I179" t="n">
-        <v>6112.01609</v>
+        <v>7249.05928</v>
       </c>
       <c r="J179" t="n">
         <v>18.3333333333333</v>
@@ -16197,13 +16197,13 @@
         <v>175</v>
       </c>
       <c r="G197" t="n">
-        <v>828.2838695783749</v>
+        <v>866.185309496194</v>
       </c>
       <c r="H197" t="n">
         <v>9678</v>
       </c>
       <c r="I197" t="n">
-        <v>5606.01609</v>
+        <v>6743.05928</v>
       </c>
       <c r="J197" t="n">
         <v>20</v>
@@ -16282,13 +16282,13 @@
         <v>175</v>
       </c>
       <c r="G198" t="n">
-        <v>828.2838695783749</v>
+        <v>866.185309496194</v>
       </c>
       <c r="H198" t="n">
         <v>9678</v>
       </c>
       <c r="I198" t="n">
-        <v>5606.01609</v>
+        <v>6743.05928</v>
       </c>
       <c r="J198" t="n">
         <v>20</v>
@@ -16367,13 +16367,13 @@
         <v>175</v>
       </c>
       <c r="G199" t="n">
-        <v>828.2838695783749</v>
+        <v>866.185309496194</v>
       </c>
       <c r="H199" t="n">
         <v>9678</v>
       </c>
       <c r="I199" t="n">
-        <v>5606.01609</v>
+        <v>6743.05928</v>
       </c>
       <c r="J199" t="n">
         <v>20</v>
@@ -16452,13 +16452,13 @@
         <v>175</v>
       </c>
       <c r="G200" t="n">
-        <v>828.2838695783749</v>
+        <v>866.185309496194</v>
       </c>
       <c r="H200" t="n">
         <v>9678</v>
       </c>
       <c r="I200" t="n">
-        <v>5606.01609</v>
+        <v>6743.05928</v>
       </c>
       <c r="J200" t="n">
         <v>20</v>
@@ -17878,10 +17878,10 @@
         <v>155</v>
       </c>
       <c r="G218" t="n">
-        <v>448.793658184525</v>
+        <v>488.002044306408</v>
       </c>
       <c r="H218" t="n">
-        <v>6012.03217470248</v>
+        <v>8286.118569771639</v>
       </c>
       <c r="I218" t="n">
         <v>1860</v>
@@ -17963,10 +17963,10 @@
         <v>155</v>
       </c>
       <c r="G219" t="n">
-        <v>448.793658184525</v>
+        <v>488.002044306408</v>
       </c>
       <c r="H219" t="n">
-        <v>6012.03217470248</v>
+        <v>8286.118569771639</v>
       </c>
       <c r="I219" t="n">
         <v>1860</v>
@@ -18048,10 +18048,10 @@
         <v>155</v>
       </c>
       <c r="G220" t="n">
-        <v>448.793658184525</v>
+        <v>488.002044306408</v>
       </c>
       <c r="H220" t="n">
-        <v>6012.03217470248</v>
+        <v>8286.118569771639</v>
       </c>
       <c r="I220" t="n">
         <v>1860</v>
@@ -18133,10 +18133,10 @@
         <v>155</v>
       </c>
       <c r="G221" t="n">
-        <v>448.793658184525</v>
+        <v>488.002044306408</v>
       </c>
       <c r="H221" t="n">
-        <v>6012.03217470248</v>
+        <v>8286.118569771639</v>
       </c>
       <c r="I221" t="n">
         <v>1860</v>
@@ -19316,10 +19316,10 @@
         <v>0.8</v>
       </c>
       <c r="G236" t="n">
-        <v>1.92432725956804</v>
+        <v>1.92214735786768</v>
       </c>
       <c r="H236" t="n">
-        <v>11.3066537953782</v>
+        <v>11.182399398458</v>
       </c>
       <c r="I236" t="n">
         <v>5.63</v>
@@ -19559,10 +19559,10 @@
         <v>170</v>
       </c>
       <c r="G239" t="n">
-        <v>582.086761632801</v>
+        <v>621.295147754684</v>
       </c>
       <c r="H239" t="n">
-        <v>6012.03217470248</v>
+        <v>8286.118569771639</v>
       </c>
       <c r="I239" t="n">
         <v>3960</v>
@@ -19644,10 +19644,10 @@
         <v>170</v>
       </c>
       <c r="G240" t="n">
-        <v>582.086761632801</v>
+        <v>621.295147754684</v>
       </c>
       <c r="H240" t="n">
-        <v>6012.03217470248</v>
+        <v>8286.118569771639</v>
       </c>
       <c r="I240" t="n">
         <v>3960</v>
@@ -19729,10 +19729,10 @@
         <v>170</v>
       </c>
       <c r="G241" t="n">
-        <v>582.086761632801</v>
+        <v>621.295147754684</v>
       </c>
       <c r="H241" t="n">
-        <v>6012.03217470248</v>
+        <v>8286.118569771639</v>
       </c>
       <c r="I241" t="n">
         <v>3960</v>
@@ -19814,10 +19814,10 @@
         <v>170</v>
       </c>
       <c r="G242" t="n">
-        <v>582.086761632801</v>
+        <v>621.295147754684</v>
       </c>
       <c r="H242" t="n">
-        <v>6012.03217470248</v>
+        <v>8286.118569771639</v>
       </c>
       <c r="I242" t="n">
         <v>3960</v>
@@ -20997,10 +20997,10 @@
         <v>1.2</v>
       </c>
       <c r="G257" t="n">
-        <v>2.15494024634604</v>
+        <v>2.15272141782961</v>
       </c>
       <c r="H257" t="n">
-        <v>11.3066537953782</v>
+        <v>11.182399398458</v>
       </c>
       <c r="I257" t="n">
         <v>5.64</v>
@@ -21240,10 +21240,10 @@
         <v>195</v>
       </c>
       <c r="G260" t="n">
-        <v>580.897106460388</v>
+        <v>620.10549258227</v>
       </c>
       <c r="H260" t="n">
-        <v>6012.03217470248</v>
+        <v>8286.118569771639</v>
       </c>
       <c r="I260" t="n">
         <v>3800</v>
@@ -21325,10 +21325,10 @@
         <v>195</v>
       </c>
       <c r="G261" t="n">
-        <v>580.897106460388</v>
+        <v>620.10549258227</v>
       </c>
       <c r="H261" t="n">
-        <v>6012.03217470248</v>
+        <v>8286.118569771639</v>
       </c>
       <c r="I261" t="n">
         <v>3800</v>
@@ -21410,10 +21410,10 @@
         <v>195</v>
       </c>
       <c r="G262" t="n">
-        <v>580.897106460388</v>
+        <v>620.10549258227</v>
       </c>
       <c r="H262" t="n">
-        <v>6012.03217470248</v>
+        <v>8286.118569771639</v>
       </c>
       <c r="I262" t="n">
         <v>3800</v>
@@ -21495,10 +21495,10 @@
         <v>195</v>
       </c>
       <c r="G263" t="n">
-        <v>580.897106460388</v>
+        <v>620.10549258227</v>
       </c>
       <c r="H263" t="n">
-        <v>6012.03217470248</v>
+        <v>8286.118569771639</v>
       </c>
       <c r="I263" t="n">
         <v>3800</v>
@@ -22678,10 +22678,10 @@
         <v>1.1</v>
       </c>
       <c r="G278" t="n">
-        <v>2.133267721478</v>
+        <v>2.13083136075408</v>
       </c>
       <c r="H278" t="n">
-        <v>11.3066537953782</v>
+        <v>11.182399398458</v>
       </c>
       <c r="I278" t="n">
         <v>5.69</v>
